--- a/My project/Luban/Config/Datas/__tables__.xlsx
+++ b/My project/Luban/Config/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB2D369-13B7-40AA-A596-52899CCE1A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2090A2FB-65E6-49C6-9B32-8C54D84CE72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="5010" windowWidth="28800" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -160,6 +160,34 @@
   </si>
   <si>
     <t>EnemyInfo.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbCommon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名词解释表.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbBuffInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffInfo.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,6 +718,37 @@
         <v>42</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/My project/Luban/Config/Datas/__tables__.xlsx
+++ b/My project/Luban/Config/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2090A2FB-65E6-49C6-9B32-8C54D84CE72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7363C721-E98B-4B6C-B4DF-48946290073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="5010" windowWidth="28800" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="6360" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>BuffName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +551,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -675,6 +679,9 @@
       <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">

--- a/My project/Luban/Config/Datas/__tables__.xlsx
+++ b/My project/Luban/Config/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7363C721-E98B-4B6C-B4DF-48946290073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6FA345-3294-4E00-BC54-94F745FCB700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="6360" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="7500" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>Alias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbCardBuffInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardBuffInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardBuffInfo.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -756,6 +768,23 @@
         <v>49</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
